--- a/interpolation/二维点坐标(1).xlsx
+++ b/interpolation/二维点坐标(1).xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LJ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitRepo\bspline\interpolation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60DF44FA-01FB-4B86-8390-E3236EF3744B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{330A06FF-96FA-4C54-8E39-F75B8D863970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="20830" windowHeight="14620" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="24870" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="二维" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -51,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="26">
   <si>
     <t>x</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -143,22 +145,31 @@
     <t>切点</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>x-45</t>
+  </si>
+  <si>
+    <t>y-45</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.000"/>
+  </numFmts>
   <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -202,7 +213,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -223,9 +234,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -243,7 +255,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -280,7 +292,970 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>二维!$B$3:$B$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-10.34729635533386</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-10.684040286651337</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-11</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-11.285575219373079</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-11.532088886237956</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-11.732050807568877</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-11.879385241571816</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-11.969615506024416</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-12</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-12</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-12</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-12</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-12</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-12</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-12</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-12</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-12</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-12</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-12</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-12</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-12</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>二维!$C$3:$C$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-3.0384493975583959E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.12061475842818314</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.26794919243112258</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.46791111376204397</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.71442478062692105</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-1.3159597133486622</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-1.6527036446661394</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-1.9999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-5.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-6.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-8</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-8.5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-9</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-11</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-12</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-13</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-15</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DD47-4C0D-85CC-68F84806703E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="458712056"/>
+        <c:axId val="458709104"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="458712056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="458709104"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="458709104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="458712056"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>二维!$F$3:$F$35</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>3.5356157999613025</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.828492639969042</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1213694799767815</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.7071231599922605</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.7071231599922605</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.414246319984521</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-2.828492639969042</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-4.242738959953563</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-5.656985279938084</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-7.071231599922605</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-7.338297480219885</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-7.6402178670058003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-7.9678190621069493</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-8.3111470689843863</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-8.6597700398814919</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-9.0030952422392971</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-9.3306909135150935</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-9.6326032250085731</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-9.899658723910008</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-12.020929929914333</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-12.374475130915055</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-12.728020331915776</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-13.081565532916496</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-14.142201135918658</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-14.495746336919378</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-14.849291537920099</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-15.55638193992154</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-16.263472341922984</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-16.970562743924425</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-17.677653145925866</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-19.091833949928748</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-20.50601475393163</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>二维!$G$3:$G$35</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>-3.5354520100072073</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.8283616080057659</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2.1212712060043244</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.70709040200144146</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.70709040200144146</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.4141808040028829</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.8283616080057659</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.2425424120086488</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.6567232160115317</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.0709040200144146</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.2949883601262888</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.4692928521664497</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.5885213423465867</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.6490511333251021</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.6490430580326656</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.5884973618329532</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.4692536950673913</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.2949352162104448</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.0708385040327766</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.9494690240559951</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.5959074440598648</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.2423458640637346</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.8887842840676043</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.8280995440792136</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.4745379640830834</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.1209763840869531</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.4138532240946926</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.70673006410243211</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-3.9309588982838761E-4</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.70751625588208888</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-2.1217625758666099</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-3.5360088958511309</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D16B-4D6E-8ED0-7808689FE68C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="389460816"/>
+        <c:axId val="459017744"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="389460816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="459017744"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="2"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="459017744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="389460816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -13067,7 +14042,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="582512440"/>
@@ -13129,7 +14104,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="582510840"/>
@@ -13171,7 +14146,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -13208,7 +14183,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -13220,6 +14195,86 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -13775,7 +14830,1116 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>63501</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>62751</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>112059</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>59763</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{882104C3-E68A-4B55-84EB-8AD8B9BA088D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>481851</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>29882</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>67235</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>74706</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BF83AD7-05F3-409E-A34C-BC47232C8CCE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -14079,18 +16243,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:D35"/>
+  <dimension ref="A2:I35"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5:G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="16384" width="8.6640625" style="1"/>
+    <col min="1" max="16384" width="8.6328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -14103,8 +16267,18 @@
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="F2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="1">
+        <f>-45/180*3.1415</f>
+        <v>-0.78537500000000005</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -14117,8 +16291,16 @@
       <c r="D3" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="F3" s="12">
+        <f>B3*COS(I$2)-C3*SIN(I$2)</f>
+        <v>3.5356157999613025</v>
+      </c>
+      <c r="G3" s="12">
+        <f>B3*SIN(I$2)+C3*COS(I$2)</f>
+        <v>-3.5354520100072073</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -14131,8 +16313,16 @@
       <c r="D4" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="F4" s="12">
+        <f t="shared" ref="F4:F34" si="0">B4*COS(I$2)-C4*SIN(I$2)</f>
+        <v>2.828492639969042</v>
+      </c>
+      <c r="G4" s="12">
+        <f t="shared" ref="G4:G34" si="1">B4*SIN(I$2)+C4*COS(I$2)</f>
+        <v>-2.8283616080057659</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -14145,8 +16335,16 @@
       <c r="D5" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="F5" s="12">
+        <f t="shared" si="0"/>
+        <v>2.1213694799767815</v>
+      </c>
+      <c r="G5" s="12">
+        <f t="shared" si="1"/>
+        <v>-2.1212712060043244</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -14159,8 +16357,16 @@
       <c r="D6" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="F6" s="12">
+        <f t="shared" si="0"/>
+        <v>0.7071231599922605</v>
+      </c>
+      <c r="G6" s="12">
+        <f t="shared" si="1"/>
+        <v>-0.70709040200144146</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -14173,8 +16379,16 @@
       <c r="D7" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="F7" s="12">
+        <f t="shared" si="0"/>
+        <v>-0.7071231599922605</v>
+      </c>
+      <c r="G7" s="12">
+        <f t="shared" si="1"/>
+        <v>0.70709040200144146</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -14187,8 +16401,16 @@
       <c r="D8" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="F8" s="12">
+        <f t="shared" si="0"/>
+        <v>-1.414246319984521</v>
+      </c>
+      <c r="G8" s="12">
+        <f t="shared" si="1"/>
+        <v>1.4141808040028829</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -14201,8 +16423,16 @@
       <c r="D9" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="F9" s="12">
+        <f t="shared" si="0"/>
+        <v>-2.828492639969042</v>
+      </c>
+      <c r="G9" s="12">
+        <f t="shared" si="1"/>
+        <v>2.8283616080057659</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -14215,8 +16445,16 @@
       <c r="D10" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="F10" s="12">
+        <f t="shared" si="0"/>
+        <v>-4.242738959953563</v>
+      </c>
+      <c r="G10" s="12">
+        <f t="shared" si="1"/>
+        <v>4.2425424120086488</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -14229,8 +16467,16 @@
       <c r="D11" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="F11" s="12">
+        <f t="shared" si="0"/>
+        <v>-5.656985279938084</v>
+      </c>
+      <c r="G11" s="12">
+        <f t="shared" si="1"/>
+        <v>5.6567232160115317</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -14243,8 +16489,16 @@
       <c r="D12" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="F12" s="12">
+        <f t="shared" si="0"/>
+        <v>-7.071231599922605</v>
+      </c>
+      <c r="G12" s="12">
+        <f t="shared" si="1"/>
+        <v>7.0709040200144146</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -14257,8 +16511,16 @@
       <c r="D13" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="F13" s="12">
+        <f t="shared" si="0"/>
+        <v>-7.338297480219885</v>
+      </c>
+      <c r="G13" s="12">
+        <f t="shared" si="1"/>
+        <v>7.2949883601262888</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -14271,8 +16533,16 @@
       <c r="D14" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="F14" s="12">
+        <f t="shared" si="0"/>
+        <v>-7.6402178670058003</v>
+      </c>
+      <c r="G14" s="12">
+        <f t="shared" si="1"/>
+        <v>7.4692928521664497</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -14285,8 +16555,16 @@
       <c r="D15" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="F15" s="12">
+        <f t="shared" si="0"/>
+        <v>-7.9678190621069493</v>
+      </c>
+      <c r="G15" s="12">
+        <f t="shared" si="1"/>
+        <v>7.5885213423465867</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -14299,8 +16577,16 @@
       <c r="D16" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="F16" s="12">
+        <f t="shared" si="0"/>
+        <v>-8.3111470689843863</v>
+      </c>
+      <c r="G16" s="12">
+        <f t="shared" si="1"/>
+        <v>7.6490511333251021</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -14313,8 +16599,16 @@
       <c r="D17" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="F17" s="12">
+        <f t="shared" si="0"/>
+        <v>-8.6597700398814919</v>
+      </c>
+      <c r="G17" s="12">
+        <f t="shared" si="1"/>
+        <v>7.6490430580326656</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -14327,8 +16621,16 @@
       <c r="D18" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="F18" s="12">
+        <f t="shared" si="0"/>
+        <v>-9.0030952422392971</v>
+      </c>
+      <c r="G18" s="12">
+        <f t="shared" si="1"/>
+        <v>7.5884973618329532</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -14341,8 +16643,16 @@
       <c r="D19" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="F19" s="12">
+        <f t="shared" si="0"/>
+        <v>-9.3306909135150935</v>
+      </c>
+      <c r="G19" s="12">
+        <f t="shared" si="1"/>
+        <v>7.4692536950673913</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -14355,8 +16665,16 @@
       <c r="D20" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="F20" s="12">
+        <f t="shared" si="0"/>
+        <v>-9.6326032250085731</v>
+      </c>
+      <c r="G20" s="12">
+        <f t="shared" si="1"/>
+        <v>7.2949352162104448</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -14369,8 +16687,16 @@
       <c r="D21" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="F21" s="12">
+        <f t="shared" si="0"/>
+        <v>-9.899658723910008</v>
+      </c>
+      <c r="G21" s="12">
+        <f t="shared" si="1"/>
+        <v>7.0708385040327766</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -14383,8 +16709,16 @@
       <c r="D22" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="F22" s="12">
+        <f t="shared" si="0"/>
+        <v>-12.020929929914333</v>
+      </c>
+      <c r="G22" s="12">
+        <f t="shared" si="1"/>
+        <v>4.9494690240559951</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -14397,8 +16731,16 @@
       <c r="D23" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="F23" s="12">
+        <f t="shared" si="0"/>
+        <v>-12.374475130915055</v>
+      </c>
+      <c r="G23" s="12">
+        <f t="shared" si="1"/>
+        <v>4.5959074440598648</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -14411,8 +16753,16 @@
       <c r="D24" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="F24" s="12">
+        <f t="shared" si="0"/>
+        <v>-12.728020331915776</v>
+      </c>
+      <c r="G24" s="12">
+        <f t="shared" si="1"/>
+        <v>4.2423458640637346</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1">
         <v>22</v>
       </c>
@@ -14425,8 +16775,16 @@
       <c r="D25" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="F25" s="12">
+        <f t="shared" si="0"/>
+        <v>-13.081565532916496</v>
+      </c>
+      <c r="G25" s="12">
+        <f t="shared" si="1"/>
+        <v>3.8887842840676043</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1">
         <v>23</v>
       </c>
@@ -14439,8 +16797,16 @@
       <c r="D26" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="F26" s="12">
+        <f t="shared" si="0"/>
+        <v>-14.142201135918658</v>
+      </c>
+      <c r="G26" s="12">
+        <f t="shared" si="1"/>
+        <v>2.8280995440792136</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1">
         <v>24</v>
       </c>
@@ -14453,8 +16819,16 @@
       <c r="D27" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="F27" s="12">
+        <f t="shared" si="0"/>
+        <v>-14.495746336919378</v>
+      </c>
+      <c r="G27" s="12">
+        <f t="shared" si="1"/>
+        <v>2.4745379640830834</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1">
         <v>25</v>
       </c>
@@ -14467,8 +16841,16 @@
       <c r="D28" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="F28" s="12">
+        <f t="shared" si="0"/>
+        <v>-14.849291537920099</v>
+      </c>
+      <c r="G28" s="12">
+        <f t="shared" si="1"/>
+        <v>2.1209763840869531</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1">
         <v>26</v>
       </c>
@@ -14481,8 +16863,16 @@
       <c r="D29" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="F29" s="12">
+        <f t="shared" si="0"/>
+        <v>-15.55638193992154</v>
+      </c>
+      <c r="G29" s="12">
+        <f t="shared" si="1"/>
+        <v>1.4138532240946926</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1">
         <v>27</v>
       </c>
@@ -14495,8 +16885,16 @@
       <c r="D30" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="F30" s="12">
+        <f t="shared" si="0"/>
+        <v>-16.263472341922984</v>
+      </c>
+      <c r="G30" s="12">
+        <f t="shared" si="1"/>
+        <v>0.70673006410243211</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1">
         <v>28</v>
       </c>
@@ -14509,8 +16907,16 @@
       <c r="D31" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="F31" s="12">
+        <f t="shared" si="0"/>
+        <v>-16.970562743924425</v>
+      </c>
+      <c r="G31" s="12">
+        <f t="shared" si="1"/>
+        <v>-3.9309588982838761E-4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1">
         <v>29</v>
       </c>
@@ -14523,8 +16929,16 @@
       <c r="D32" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="F32" s="12">
+        <f t="shared" si="0"/>
+        <v>-17.677653145925866</v>
+      </c>
+      <c r="G32" s="12">
+        <f t="shared" si="1"/>
+        <v>-0.70751625588208888</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1">
         <v>30</v>
       </c>
@@ -14537,8 +16951,16 @@
       <c r="D33" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="F33" s="12">
+        <f t="shared" si="0"/>
+        <v>-19.091833949928748</v>
+      </c>
+      <c r="G33" s="12">
+        <f t="shared" si="1"/>
+        <v>-2.1217625758666099</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1">
         <v>31</v>
       </c>
@@ -14551,8 +16973,16 @@
       <c r="D34" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="F34" s="12">
+        <f t="shared" si="0"/>
+        <v>-20.50601475393163</v>
+      </c>
+      <c r="G34" s="12">
+        <f t="shared" si="1"/>
+        <v>-3.5360088958511309</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
         <v>7</v>
       </c>
@@ -14565,11 +16995,14 @@
       <c r="D35" s="1">
         <v>13</v>
       </c>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -14581,7 +17014,7 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="6" spans="1:10">
       <c r="B6" t="s">
@@ -15320,7 +17753,7 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="2" spans="1:3">
       <c r="A2">
@@ -15369,6 +17802,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -15380,10 +17814,10 @@
       <selection activeCell="B11" sqref="B11:I303"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.83203125" customWidth="1"/>
+    <col min="1" max="1" width="20.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:14">
@@ -23141,7 +25575,8 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -23149,19 +25584,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F626DEB-04AE-45DA-831F-290F5E04B82A}">
   <dimension ref="A1:AE598"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A263" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A263" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="W304" sqref="W304"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="3" width="8.58203125" customWidth="1"/>
-    <col min="8" max="8" width="12.5" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5" style="9" customWidth="1"/>
-    <col min="12" max="13" width="8.6640625" style="9"/>
-    <col min="16" max="16" width="12.5" style="9" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.6640625" style="9"/>
-    <col min="20" max="20" width="8.6640625" style="9"/>
+    <col min="2" max="3" width="8.54296875" customWidth="1"/>
+    <col min="8" max="8" width="12.453125" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.453125" style="9" customWidth="1"/>
+    <col min="12" max="13" width="8.6328125" style="9"/>
+    <col min="16" max="16" width="12.453125" style="9" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.6328125" style="9"/>
+    <col min="20" max="20" width="8.6328125" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31">
@@ -46414,7 +48849,7 @@
       <selection activeCell="I26" sqref="A17:I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1">
